--- a/biology/Botanique/Jardin_japonais_de_Roihuvuori/Jardin_japonais_de_Roihuvuori.xlsx
+++ b/biology/Botanique/Jardin_japonais_de_Roihuvuori/Jardin_japonais_de_Roihuvuori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jardin japonais de Roihuvuori (en finnois : Japanilaistyylinen puutarha) est un parc du quartier de Roihuvuori à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jardin japonais de Roihuvuori (en finnois : Japanilaistyylinen puutarha) est un parc du quartier de Roihuvuori à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Élaboration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a été conçu par l'architecte paysager Virve Veisterä, le directeur des travaux Jukka Toivonen et le concepteur de parc Kaisu Ilonen[2]. 
-La réalisation a commencé en 1992 et le parc sera ouvert au public en 1998[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a été conçu par l'architecte paysager Virve Veisterä, le directeur des travaux Jukka Toivonen et le concepteur de parc Kaisu Ilonen. 
+La réalisation a commencé en 1992 et le parc sera ouvert au public en 1998.
 Sa superficie est de 9 238 m2.
 Le jardin japonais de Roihuvuori est relié au parc aux cerisiers d'Helsinki par une voie de circulation douce.
 Il est une des composantes du zone des parcs de Roihuvuori.
@@ -546,17 +560,11 @@
           <t>Parties</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc est composé de quatre parties portant le nom des Quatre animaux[1]:
-Le jardin du Dragon azur
-A l'ouest du parc, la pente humide aux cerisiers où le Dragon azur protège le printemps, le matin et la floraison de la jeunesse.
-Le jardin de l'Oiseau vermillon
-Au sud du parc, l'Oiseau vermillon protège la paix estivale et du midi le long du chemin de la vie.
-Le jardin du Tigre blanc de l'ouest
-À l'ouest du parc le  Tigre blanc protège les soirées d'automne.
-Le bois de la Tortue noire
-En bordure nord du jardin la Tortue noire prend soin de l'humidité du petit bois afin de garder les mousses et la végétation vertes et vivantes. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est composé de quatre parties portant le nom des Quatre animaux:
 </t>
         </is>
       </c>
@@ -582,10 +590,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Parties</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le jardin du Dragon azur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'ouest du parc, la pente humide aux cerisiers où le Dragon azur protège le printemps, le matin et la floraison de la jeunesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_japonais_de_Roihuvuori</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_japonais_de_Roihuvuori</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parties</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le jardin de l'Oiseau vermillon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sud du parc, l'Oiseau vermillon protège la paix estivale et du midi le long du chemin de la vie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_japonais_de_Roihuvuori</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_japonais_de_Roihuvuori</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Parties</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le jardin du Tigre blanc de l'ouest</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'ouest du parc le  Tigre blanc protège les soirées d'automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_japonais_de_Roihuvuori</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_japonais_de_Roihuvuori</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Parties</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le bois de la Tortue noire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En bordure nord du jardin la Tortue noire prend soin de l'humidité du petit bois afin de garder les mousses et la végétation vertes et vivantes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_japonais_de_Roihuvuori</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_japonais_de_Roihuvuori</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Adresse: 12-16, Roihuvuorentie, 00820 Helsinki
 Bus  82 et 80 à partir de la station de Herttoniemi
